--- a/Donation_Page_Defect_Report.xlsx
+++ b/Donation_Page_Defect_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B79DF0-E0C7-4A08-BC6B-B55F942342B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC4330C-C2B9-4E76-82C1-39EB9201CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A8CF2DC-11AA-4AFF-B80A-81BF8C3B65F1}"/>
   </bookViews>
